--- a/BaoCao_SystemTest_Variant.xlsx
+++ b/BaoCao_SystemTest_Variant.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -41,43 +41,61 @@
     <t>Thêm biến thể mới</t>
   </si>
   <si>
-    <t>1. Menu SP -&gt; Biến thể
-2. Click Thêm mới
-3. Nhập ProdID=35, Size=1, Stock=50
-4. Lưu</t>
-  </si>
-  <si>
-    <t>ProdID: 35, SizeID: 1</t>
-  </si>
-  <si>
-    <t>Biến thể mới xuất hiện trong danh sách (có thể ở trang cuối)</t>
-  </si>
-  <si>
-    <t>Đã tìm thấy item Stock=50: true</t>
-  </si>
-  <si>
-    <t>PASS</t>
+    <t>PID=35, Stock=8569</t>
+  </si>
+  <si>
+    <t>Stock: 8569</t>
+  </si>
+  <si>
+    <t>Tìm thấy Stock 8569</t>
+  </si>
+  <si>
+    <t>Lỗi: Lỗi: Thêm xong nhưng không tìm thấy!</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
   <si>
     <t>ST_VAR_02</t>
   </si>
   <si>
-    <t>Xóa biến thể (Tìm ở trang cuối)</t>
-  </si>
-  <si>
-    <t>1. Lật trang tìm biến thể Stock=50
-2. Click Xóa
-3. Confirm Alert
-4. Check biến mất</t>
-  </si>
-  <si>
-    <t>Action: Delete</t>
-  </si>
-  <si>
-    <t>Biến thể bị xóa khỏi danh sách</t>
-  </si>
-  <si>
-    <t>Đã xóa. Quay lại list: true</t>
+    <t>Sửa tồn kho</t>
+  </si>
+  <si>
+    <t>Sửa Stock thành 8570</t>
+  </si>
+  <si>
+    <t>New Stock: 8570</t>
+  </si>
+  <si>
+    <t>Cập nhật thành công</t>
+  </si>
+  <si>
+    <t>Lỗi: Không tìm thấy nút Sửa cho Stock=8569</t>
+  </si>
+  <si>
+    <t>ST_VAR_03</t>
+  </si>
+  <si>
+    <t>Xóa biến thể</t>
+  </si>
+  <si>
+    <t>Xóa item Stock=8570</t>
+  </si>
+  <si>
+    <t>Đã xóa</t>
+  </si>
+  <si>
+    <t>Không còn tìm thấy</t>
+  </si>
+  <si>
+    <t>Lỗi: invalid session id
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:48'
+System info: host: 'BANGGG', ip: '26.204.97.72', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_45'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 143.0.7499.40, chrome: {chromedriverVersion: 142.0.7444.61 (9884f628acbc..., userDataDir: C:\Users\phant\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51011}, goog:processID: 15280, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3dd0b3796807c05798ce56ae4c1cbe04
+*** Element info: {Using=xpath, value=//tr[td[contains(., '8570')]]}</t>
   </si>
 </sst>
 </file>
@@ -155,18 +173,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="11.2578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.71875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="33.88671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.1171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="54.8515625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="29.49609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.04296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.4765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="16.0078125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="19.5546875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="255.0" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -212,7 +230,7 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="G2" t="s" s="3">
         <v>13</v>
       </c>
     </row>
@@ -235,7 +253,30 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s" s="3">
         <v>13</v>
       </c>
     </row>
